--- a/campi-10-2.0.log.xlsx
+++ b/campi-10-2.0.log.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay\Downloads\autodrive-master\autodrive-master\rpi\dataset5-nopause\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92037E3-4461-4A85-8331-33631A12FB75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7FA36B-2F99-4F65-97E1-C971ADEE4C18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="1710" windowWidth="29040" windowHeight="20520"/>
+    <workbookView xWindow="4050" yWindow="7320" windowWidth="29040" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="campi-10-2.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'campi-10-2.0'!$A$1:$F$432</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>L</t>
   </si>
@@ -33,11 +44,17 @@
   <si>
     <t>delta Time</t>
   </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7034,11 +7051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F432"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B453" sqref="B453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7062,6 +7079,12 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -7077,6 +7100,10 @@
       <c r="D2">
         <v>23</v>
       </c>
+      <c r="E2">
+        <f>ABS((C2-D2)/2)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7092,6 +7119,10 @@
       <c r="D3">
         <v>23</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">ABS((C3-D3)/2)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7107,6 +7138,10 @@
       <c r="D4">
         <v>23</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -7122,9 +7157,9 @@
       <c r="D5">
         <v>24</v>
       </c>
-      <c r="F5">
-        <f>STDEV(C2:C432)</f>
-        <v>12.336730408611892</v>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7141,6 +7176,10 @@
       <c r="D6">
         <v>28</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -7156,6 +7195,10 @@
       <c r="D7">
         <v>33</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -7171,6 +7214,10 @@
       <c r="D8">
         <v>36</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -7186,6 +7233,10 @@
       <c r="D9">
         <v>39</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -7201,6 +7252,10 @@
       <c r="D10">
         <v>38</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -7216,6 +7271,10 @@
       <c r="D11">
         <v>33</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -7231,6 +7290,10 @@
       <c r="D12">
         <v>28</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -7246,6 +7309,10 @@
       <c r="D13">
         <v>24</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -7261,6 +7328,10 @@
       <c r="D14">
         <v>23</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -7276,6 +7347,10 @@
       <c r="D15">
         <v>22</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -7291,8 +7366,12 @@
       <c r="D16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1551307302.3299999</v>
       </c>
@@ -7306,8 +7385,12 @@
       <c r="D17">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1551307302.4300001</v>
       </c>
@@ -7321,8 +7404,12 @@
       <c r="D18">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1551307302.52</v>
       </c>
@@ -7336,8 +7423,12 @@
       <c r="D19">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1551307302.6099999</v>
       </c>
@@ -7351,8 +7442,12 @@
       <c r="D20">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1551307302.71</v>
       </c>
@@ -7366,8 +7461,12 @@
       <c r="D21">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1551307302.8</v>
       </c>
@@ -7381,8 +7480,12 @@
       <c r="D22">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1551307302.8900001</v>
       </c>
@@ -7396,8 +7499,12 @@
       <c r="D23">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1551307302.99</v>
       </c>
@@ -7411,8 +7518,12 @@
       <c r="D24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1551307303.0799999</v>
       </c>
@@ -7426,8 +7537,12 @@
       <c r="D25">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1551307303.1700001</v>
       </c>
@@ -7441,8 +7556,12 @@
       <c r="D26">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1551307303.27</v>
       </c>
@@ -7456,8 +7575,12 @@
       <c r="D27">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1551307303.3599999</v>
       </c>
@@ -7471,8 +7594,12 @@
       <c r="D28">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1551307303.46</v>
       </c>
@@ -7486,8 +7613,12 @@
       <c r="D29">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1551307303.55</v>
       </c>
@@ -7501,8 +7632,12 @@
       <c r="D30">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1551307303.6400001</v>
       </c>
@@ -7516,8 +7651,12 @@
       <c r="D31">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1551307303.74</v>
       </c>
@@ -7531,8 +7670,12 @@
       <c r="D32">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1551307303.8299999</v>
       </c>
@@ -7546,8 +7689,12 @@
       <c r="D33">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1551307303.98</v>
       </c>
@@ -7561,8 +7708,12 @@
       <c r="D34">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1551307304.0699999</v>
       </c>
@@ -7576,8 +7727,12 @@
       <c r="D35">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1551307304.1099999</v>
       </c>
@@ -7591,8 +7746,12 @@
       <c r="D36">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1551307304.25</v>
       </c>
@@ -7606,8 +7765,12 @@
       <c r="D37">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1551307304.3399999</v>
       </c>
@@ -7621,8 +7784,12 @@
       <c r="D38">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1551307304.4300001</v>
       </c>
@@ -7636,8 +7803,12 @@
       <c r="D39">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1551307304.52</v>
       </c>
@@ -7651,8 +7822,12 @@
       <c r="D40">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1551307304.6099999</v>
       </c>
@@ -7666,8 +7841,12 @@
       <c r="D41">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1551307304.71</v>
       </c>
@@ -7681,8 +7860,12 @@
       <c r="D42">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1551307304.8</v>
       </c>
@@ -7696,8 +7879,12 @@
       <c r="D43">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1551307304.8900001</v>
       </c>
@@ -7711,8 +7898,12 @@
       <c r="D44">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1551307304.99</v>
       </c>
@@ -7726,8 +7917,12 @@
       <c r="D45">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1551307305.0799999</v>
       </c>
@@ -7741,8 +7936,12 @@
       <c r="D46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1551307305.1800001</v>
       </c>
@@ -7756,8 +7955,12 @@
       <c r="D47">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1551307305.27</v>
       </c>
@@ -7771,8 +7974,12 @@
       <c r="D48">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1551307305.3599999</v>
       </c>
@@ -7786,8 +7993,12 @@
       <c r="D49">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1551307305.46</v>
       </c>
@@ -7801,8 +8012,12 @@
       <c r="D50">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1551307305.55</v>
       </c>
@@ -7816,8 +8031,12 @@
       <c r="D51">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1551307305.6400001</v>
       </c>
@@ -7831,8 +8050,12 @@
       <c r="D52">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1551307305.74</v>
       </c>
@@ -7846,8 +8069,12 @@
       <c r="D53">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1551307305.8299999</v>
       </c>
@@ -7861,8 +8088,12 @@
       <c r="D54">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1551307305.9300001</v>
       </c>
@@ -7876,8 +8107,12 @@
       <c r="D55">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1551307306.02</v>
       </c>
@@ -7891,8 +8126,12 @@
       <c r="D56">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1551307306.1099999</v>
       </c>
@@ -7906,8 +8145,12 @@
       <c r="D57">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1551307306.21</v>
       </c>
@@ -7921,8 +8164,12 @@
       <c r="D58">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1551307306.3</v>
       </c>
@@ -7936,8 +8183,12 @@
       <c r="D59">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1551307306.3900001</v>
       </c>
@@ -7951,8 +8202,12 @@
       <c r="D60">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1551307306.49</v>
       </c>
@@ -7966,8 +8221,12 @@
       <c r="D61">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1551307306.5799999</v>
       </c>
@@ -7981,8 +8240,12 @@
       <c r="D62">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1551307306.6700001</v>
       </c>
@@ -7996,8 +8259,12 @@
       <c r="D63">
         <v>53</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1551307306.77</v>
       </c>
@@ -8011,8 +8278,12 @@
       <c r="D64">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1551307306.8599999</v>
       </c>
@@ -8026,8 +8297,12 @@
       <c r="D65">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1551307306.96</v>
       </c>
@@ -8041,13 +8316,17 @@
       <c r="D66">
         <v>53</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1551307307.05</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="1">A67-1551307301.06</f>
+        <f t="shared" ref="B67:B130" si="2">A67-1551307301.06</f>
         <v>5.9900000095367432</v>
       </c>
       <c r="C67">
@@ -8056,13 +8335,17 @@
       <c r="D67">
         <v>51</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="3">ABS((C67-D67)/2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1551307307.1400001</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0800001621246338</v>
       </c>
       <c r="C68">
@@ -8071,13 +8354,17 @@
       <c r="D68">
         <v>46</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1551307307.24</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1800000667572021</v>
       </c>
       <c r="C69">
@@ -8086,13 +8373,17 @@
       <c r="D69">
         <v>43</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1551307307.3299999</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2699999809265137</v>
       </c>
       <c r="C70">
@@ -8101,13 +8392,17 @@
       <c r="D70">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1551307307.4200001</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3600001335144043</v>
       </c>
       <c r="C71">
@@ -8116,13 +8411,17 @@
       <c r="D71">
         <v>41</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1551307307.52</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4600000381469727</v>
       </c>
       <c r="C72">
@@ -8131,13 +8430,17 @@
       <c r="D72">
         <v>40</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1551307307.6099999</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5499999523162842</v>
       </c>
       <c r="C73">
@@ -8146,13 +8449,17 @@
       <c r="D73">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1551307307.71</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6500000953674316</v>
       </c>
       <c r="C74">
@@ -8161,13 +8468,17 @@
       <c r="D74">
         <v>38</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1551307307.8</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7400000095367432</v>
       </c>
       <c r="C75">
@@ -8176,13 +8487,17 @@
       <c r="D75">
         <v>37</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1551307307.8900001</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8300001621246338</v>
       </c>
       <c r="C76">
@@ -8191,13 +8506,17 @@
       <c r="D76">
         <v>37</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1551307307.99</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9300000667572021</v>
       </c>
       <c r="C77">
@@ -8206,13 +8525,17 @@
       <c r="D77">
         <v>36</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1551307308.0799999</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0199999809265137</v>
       </c>
       <c r="C78">
@@ -8221,13 +8544,17 @@
       <c r="D78">
         <v>35</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1551307308.1700001</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1100001335144043</v>
       </c>
       <c r="C79">
@@ -8236,13 +8563,17 @@
       <c r="D79">
         <v>35</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1551307308.27</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2100000381469727</v>
       </c>
       <c r="C80">
@@ -8251,13 +8582,17 @@
       <c r="D80">
         <v>34</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1551307308.3599999</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2999999523162842</v>
       </c>
       <c r="C81">
@@ -8266,13 +8601,17 @@
       <c r="D81">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1551307308.46</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4000000953674316</v>
       </c>
       <c r="C82">
@@ -8281,13 +8620,17 @@
       <c r="D82">
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1551307308.55</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4900000095367432</v>
       </c>
       <c r="C83">
@@ -8296,13 +8639,17 @@
       <c r="D83">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1551307308.6400001</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5800001621246338</v>
       </c>
       <c r="C84">
@@ -8311,13 +8658,17 @@
       <c r="D84">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1551307308.74</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6800000667572021</v>
       </c>
       <c r="C85">
@@ -8326,13 +8677,17 @@
       <c r="D85">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1551307308.8299999</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7699999809265137</v>
       </c>
       <c r="C86">
@@ -8341,13 +8696,17 @@
       <c r="D86">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1551307308.98</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9200000762939453</v>
       </c>
       <c r="C87">
@@ -8356,13 +8715,17 @@
       <c r="D87">
         <v>31</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1551307309.01</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9500000476837158</v>
       </c>
       <c r="C88">
@@ -8371,13 +8734,17 @@
       <c r="D88">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1551307309.04</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9800000190734863</v>
       </c>
       <c r="C89">
@@ -8386,13 +8753,17 @@
       <c r="D89">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1551307309.1400001</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0800001621246338</v>
       </c>
       <c r="C90">
@@ -8401,13 +8772,17 @@
       <c r="D90">
         <v>32</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1551307309.24</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1800000667572021</v>
       </c>
       <c r="C91">
@@ -8416,13 +8791,17 @@
       <c r="D91">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1551307309.3800001</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.320000171661377</v>
       </c>
       <c r="C92">
@@ -8431,13 +8810,17 @@
       <c r="D92">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1551307309.45</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3900001049041748</v>
       </c>
       <c r="C93">
@@ -8446,13 +8829,20 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1551307311.47</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.410000085830688</v>
       </c>
       <c r="C94">
@@ -8461,13 +8851,20 @@
       <c r="D94">
         <v>32</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1551307311.5599999</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="C95">
@@ -8476,13 +8873,20 @@
       <c r="D95">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1551307311.6500001</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.590000152587891</v>
       </c>
       <c r="C96">
@@ -8491,13 +8895,20 @@
       <c r="D96">
         <v>28</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1551307311.74</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.680000066757202</v>
       </c>
       <c r="C97">
@@ -8506,13 +8917,20 @@
       <c r="D97">
         <v>29</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1551307311.8299999</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.769999980926514</v>
       </c>
       <c r="C98">
@@ -8521,13 +8939,17 @@
       <c r="D98">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1551307311.9200001</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.860000133514404</v>
       </c>
       <c r="C99">
@@ -8536,13 +8958,17 @@
       <c r="D99">
         <v>31</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1551307312.02</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.960000038146973</v>
       </c>
       <c r="C100">
@@ -8551,13 +8977,17 @@
       <c r="D100">
         <v>32</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1551307312.1099999</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.049999952316284</v>
       </c>
       <c r="C101">
@@ -8566,13 +8996,17 @@
       <c r="D101">
         <v>33</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1551307312.21</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.150000095367432</v>
       </c>
       <c r="C102">
@@ -8581,13 +9015,17 @@
       <c r="D102">
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1551307312.3</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.240000009536743</v>
       </c>
       <c r="C103">
@@ -8596,13 +9034,17 @@
       <c r="D103">
         <v>37</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1551307312.3900001</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.330000162124634</v>
       </c>
       <c r="C104">
@@ -8611,13 +9053,17 @@
       <c r="D104">
         <v>38</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1551307312.49</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.430000066757202</v>
       </c>
       <c r="C105">
@@ -8626,13 +9072,17 @@
       <c r="D105">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1551307312.5799999</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.519999980926514</v>
       </c>
       <c r="C106">
@@ -8641,13 +9091,17 @@
       <c r="D106">
         <v>44</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1551307312.6700001</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.610000133514404</v>
       </c>
       <c r="C107">
@@ -8656,13 +9110,17 @@
       <c r="D107">
         <v>45</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1551307312.77</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.710000038146973</v>
       </c>
       <c r="C108">
@@ -8671,13 +9129,17 @@
       <c r="D108">
         <v>48</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1551307312.8599999</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.799999952316284</v>
       </c>
       <c r="C109">
@@ -8686,13 +9148,17 @@
       <c r="D109">
         <v>52</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1551307312.96</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.900000095367432</v>
       </c>
       <c r="C110">
@@ -8701,13 +9167,17 @@
       <c r="D110">
         <v>51</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1551307313.05</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.990000009536743</v>
       </c>
       <c r="C111">
@@ -8716,13 +9186,17 @@
       <c r="D111">
         <v>51</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1551307313.1400001</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.080000162124634</v>
       </c>
       <c r="C112">
@@ -8731,13 +9205,17 @@
       <c r="D112">
         <v>49</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1551307313.24</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.180000066757202</v>
       </c>
       <c r="C113">
@@ -8746,13 +9224,17 @@
       <c r="D113">
         <v>50</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1551307313.3299999</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.269999980926514</v>
       </c>
       <c r="C114">
@@ -8761,13 +9243,17 @@
       <c r="D114">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1551307313.4200001</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.360000133514404</v>
       </c>
       <c r="C115">
@@ -8776,13 +9262,17 @@
       <c r="D115">
         <v>52</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1551307313.52</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.460000038146973</v>
       </c>
       <c r="C116">
@@ -8791,13 +9281,17 @@
       <c r="D116">
         <v>52</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1551307313.6099999</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.549999952316284</v>
       </c>
       <c r="C117">
@@ -8806,13 +9300,17 @@
       <c r="D117">
         <v>47</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1551307313.7</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.640000104904175</v>
       </c>
       <c r="C118">
@@ -8821,13 +9319,17 @@
       <c r="D118">
         <v>44</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1551307313.8</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.740000009536743</v>
       </c>
       <c r="C119">
@@ -8836,13 +9338,17 @@
       <c r="D119">
         <v>43</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1551307313.8900001</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.830000162124634</v>
       </c>
       <c r="C120">
@@ -8851,13 +9357,17 @@
       <c r="D120">
         <v>41</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1551307313.99</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.930000066757202</v>
       </c>
       <c r="C121">
@@ -8866,13 +9376,17 @@
       <c r="D121">
         <v>41</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1551307314.0799999</v>
       </c>
       <c r="B122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.019999980926514</v>
       </c>
       <c r="C122">
@@ -8881,13 +9395,17 @@
       <c r="D122">
         <v>39</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1551307314.1700001</v>
       </c>
       <c r="B123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.110000133514404</v>
       </c>
       <c r="C123">
@@ -8896,13 +9414,17 @@
       <c r="D123">
         <v>39</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1551307314.27</v>
       </c>
       <c r="B124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.210000038146973</v>
       </c>
       <c r="C124">
@@ -8911,13 +9433,17 @@
       <c r="D124">
         <v>39</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1551307314.3599999</v>
       </c>
       <c r="B125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.299999952316284</v>
       </c>
       <c r="C125">
@@ -8926,13 +9452,17 @@
       <c r="D125">
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1551307314.46</v>
       </c>
       <c r="B126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.400000095367432</v>
       </c>
       <c r="C126">
@@ -8941,13 +9471,17 @@
       <c r="D126">
         <v>36</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1551307314.55</v>
       </c>
       <c r="B127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.490000009536743</v>
       </c>
       <c r="C127">
@@ -8956,13 +9490,17 @@
       <c r="D127">
         <v>36</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1551307314.6400001</v>
       </c>
       <c r="B128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.580000162124634</v>
       </c>
       <c r="C128">
@@ -8971,13 +9509,17 @@
       <c r="D128">
         <v>36</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1551307314.74</v>
       </c>
       <c r="B129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.680000066757202</v>
       </c>
       <c r="C129">
@@ -8986,13 +9528,17 @@
       <c r="D129">
         <v>36</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1551307314.8299999</v>
       </c>
       <c r="B130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.769999980926514</v>
       </c>
       <c r="C130">
@@ -9001,13 +9547,17 @@
       <c r="D130">
         <v>35</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1551307314.9200001</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="2">A131-1551307301.06</f>
+        <f t="shared" ref="B131:B194" si="4">A131-1551307301.06</f>
         <v>13.860000133514404</v>
       </c>
       <c r="C131">
@@ -9016,13 +9566,17 @@
       <c r="D131">
         <v>34</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="5">ABS((C131-D131)/2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1551307315.01</v>
       </c>
       <c r="B132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.950000047683716</v>
       </c>
       <c r="C132">
@@ -9031,13 +9585,17 @@
       <c r="D132">
         <v>34</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1551307315.1600001</v>
       </c>
       <c r="B133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.100000143051147</v>
       </c>
       <c r="C133">
@@ -9046,13 +9604,17 @@
       <c r="D133">
         <v>34</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1551307315.25</v>
       </c>
       <c r="B134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.190000057220459</v>
       </c>
       <c r="C134">
@@ -9061,13 +9623,17 @@
       <c r="D134">
         <v>34</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1551307315.3299999</v>
       </c>
       <c r="B135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.269999980926514</v>
       </c>
       <c r="C135">
@@ -9076,13 +9642,17 @@
       <c r="D135">
         <v>34</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1551307315.4200001</v>
       </c>
       <c r="B136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.360000133514404</v>
       </c>
       <c r="C136">
@@ -9091,13 +9661,17 @@
       <c r="D136">
         <v>33</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1551307315.52</v>
       </c>
       <c r="B137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.460000038146973</v>
       </c>
       <c r="C137">
@@ -9106,13 +9680,17 @@
       <c r="D137">
         <v>32</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1551307315.6099999</v>
       </c>
       <c r="B138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.549999952316284</v>
       </c>
       <c r="C138">
@@ -9121,13 +9699,17 @@
       <c r="D138">
         <v>31</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1551307315.71</v>
       </c>
       <c r="B139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.650000095367432</v>
       </c>
       <c r="C139">
@@ -9136,13 +9718,17 @@
       <c r="D139">
         <v>31</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1551307315.8</v>
       </c>
       <c r="B140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.740000009536743</v>
       </c>
       <c r="C140">
@@ -9151,13 +9737,17 @@
       <c r="D140">
         <v>31</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1551307315.9400001</v>
       </c>
       <c r="B141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.880000114440918</v>
       </c>
       <c r="C141">
@@ -9166,13 +9756,17 @@
       <c r="D141">
         <v>31</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1551307316.03</v>
       </c>
       <c r="B142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.970000028610229</v>
       </c>
       <c r="C142">
@@ -9181,13 +9775,17 @@
       <c r="D142">
         <v>31</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1551307316.1199999</v>
       </c>
       <c r="B143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.059999942779541</v>
       </c>
       <c r="C143">
@@ -9196,13 +9794,17 @@
       <c r="D143">
         <v>31</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1551307316.21</v>
       </c>
       <c r="B144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.150000095367432</v>
       </c>
       <c r="C144">
@@ -9211,13 +9813,17 @@
       <c r="D144">
         <v>31</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1551307316.3</v>
       </c>
       <c r="B145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.240000009536743</v>
       </c>
       <c r="C145">
@@ -9226,13 +9832,17 @@
       <c r="D145">
         <v>32</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1551307316.3900001</v>
       </c>
       <c r="B146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.330000162124634</v>
       </c>
       <c r="C146">
@@ -9241,13 +9851,17 @@
       <c r="D146">
         <v>32</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1551307316.49</v>
       </c>
       <c r="B147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.430000066757202</v>
       </c>
       <c r="C147">
@@ -9256,13 +9870,17 @@
       <c r="D147">
         <v>32</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1551307316.5799999</v>
       </c>
       <c r="B148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.519999980926514</v>
       </c>
       <c r="C148">
@@ -9271,13 +9889,17 @@
       <c r="D148">
         <v>33</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1551307316.6700001</v>
       </c>
       <c r="B149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.610000133514404</v>
       </c>
       <c r="C149">
@@ -9286,13 +9908,17 @@
       <c r="D149">
         <v>32</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1551307316.77</v>
       </c>
       <c r="B150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.710000038146973</v>
       </c>
       <c r="C150">
@@ -9301,13 +9927,17 @@
       <c r="D150">
         <v>32</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1551307316.8599999</v>
       </c>
       <c r="B151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.799999952316284</v>
       </c>
       <c r="C151">
@@ -9316,13 +9946,17 @@
       <c r="D151">
         <v>31</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1551307316.96</v>
       </c>
       <c r="B152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.900000095367432</v>
       </c>
       <c r="C152">
@@ -9331,13 +9965,17 @@
       <c r="D152">
         <v>32</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1551307317.05</v>
       </c>
       <c r="B153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.990000009536743</v>
       </c>
       <c r="C153">
@@ -9346,13 +9984,17 @@
       <c r="D153">
         <v>32</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1551307317.1400001</v>
       </c>
       <c r="B154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.080000162124634</v>
       </c>
       <c r="C154">
@@ -9361,13 +10003,17 @@
       <c r="D154">
         <v>31</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1551307317.24</v>
       </c>
       <c r="B155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.180000066757202</v>
       </c>
       <c r="C155">
@@ -9376,13 +10022,17 @@
       <c r="D155">
         <v>31</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1551307317.3299999</v>
       </c>
       <c r="B156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.269999980926514</v>
       </c>
       <c r="C156">
@@ -9391,13 +10041,17 @@
       <c r="D156">
         <v>32</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1551307317.4200001</v>
       </c>
       <c r="B157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.360000133514404</v>
       </c>
       <c r="C157">
@@ -9406,13 +10060,17 @@
       <c r="D157">
         <v>32</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1551307317.52</v>
       </c>
       <c r="B158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.460000038146973</v>
       </c>
       <c r="C158">
@@ -9421,13 +10079,17 @@
       <c r="D158">
         <v>32</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1551307317.6099999</v>
       </c>
       <c r="B159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.549999952316284</v>
       </c>
       <c r="C159">
@@ -9436,13 +10098,17 @@
       <c r="D159">
         <v>32</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1551307317.7</v>
       </c>
       <c r="B160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.640000104904175</v>
       </c>
       <c r="C160">
@@ -9451,13 +10117,17 @@
       <c r="D160">
         <v>32</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1551307317.8</v>
       </c>
       <c r="B161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.740000009536743</v>
       </c>
       <c r="C161">
@@ -9466,13 +10136,17 @@
       <c r="D161">
         <v>32</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1551307317.8900001</v>
       </c>
       <c r="B162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.830000162124634</v>
       </c>
       <c r="C162">
@@ -9481,13 +10155,17 @@
       <c r="D162">
         <v>33</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1551307317.99</v>
       </c>
       <c r="B163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.930000066757202</v>
       </c>
       <c r="C163">
@@ -9496,13 +10174,17 @@
       <c r="D163">
         <v>34</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1551307318.0799999</v>
       </c>
       <c r="B164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.019999980926514</v>
       </c>
       <c r="C164">
@@ -9511,13 +10193,17 @@
       <c r="D164">
         <v>36</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1551307318.1700001</v>
       </c>
       <c r="B165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.110000133514404</v>
       </c>
       <c r="C165">
@@ -9526,13 +10212,17 @@
       <c r="D165">
         <v>39</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1551307318.27</v>
       </c>
       <c r="B166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.210000038146973</v>
       </c>
       <c r="C166">
@@ -9541,13 +10231,17 @@
       <c r="D166">
         <v>40</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1551307318.3599999</v>
       </c>
       <c r="B167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.299999952316284</v>
       </c>
       <c r="C167">
@@ -9556,13 +10250,17 @@
       <c r="D167">
         <v>41</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1551307318.45</v>
       </c>
       <c r="B168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.390000104904175</v>
       </c>
       <c r="C168">
@@ -9571,13 +10269,17 @@
       <c r="D168">
         <v>41</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1551307318.55</v>
       </c>
       <c r="B169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.490000009536743</v>
       </c>
       <c r="C169">
@@ -9586,13 +10288,17 @@
       <c r="D169">
         <v>40</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1551307318.6400001</v>
       </c>
       <c r="B170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.580000162124634</v>
       </c>
       <c r="C170">
@@ -9601,13 +10307,17 @@
       <c r="D170">
         <v>40</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1551307318.74</v>
       </c>
       <c r="B171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.680000066757202</v>
       </c>
       <c r="C171">
@@ -9616,13 +10326,17 @@
       <c r="D171">
         <v>39</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1551307318.8299999</v>
       </c>
       <c r="B172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.769999980926514</v>
       </c>
       <c r="C172">
@@ -9631,13 +10345,17 @@
       <c r="D172">
         <v>39</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1551307318.9200001</v>
       </c>
       <c r="B173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.860000133514404</v>
       </c>
       <c r="C173">
@@ -9646,13 +10364,17 @@
       <c r="D173">
         <v>38</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1551307319.02</v>
       </c>
       <c r="B174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.960000038146973</v>
       </c>
       <c r="C174">
@@ -9661,13 +10383,17 @@
       <c r="D174">
         <v>39</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1551307319.1099999</v>
       </c>
       <c r="B175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.049999952316284</v>
       </c>
       <c r="C175">
@@ -9676,13 +10402,17 @@
       <c r="D175">
         <v>40</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1551307319.2</v>
       </c>
       <c r="B176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.140000104904175</v>
       </c>
       <c r="C176">
@@ -9691,13 +10421,17 @@
       <c r="D176">
         <v>42</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1551307319.3</v>
       </c>
       <c r="B177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.240000009536743</v>
       </c>
       <c r="C177">
@@ -9706,13 +10440,17 @@
       <c r="D177">
         <v>45</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1551307319.3900001</v>
       </c>
       <c r="B178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.330000162124634</v>
       </c>
       <c r="C178">
@@ -9721,13 +10459,17 @@
       <c r="D178">
         <v>46</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <f t="shared" si="5"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1551307319.49</v>
       </c>
       <c r="B179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.430000066757202</v>
       </c>
       <c r="C179">
@@ -9736,13 +10478,17 @@
       <c r="D179">
         <v>47</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1551307319.5799999</v>
       </c>
       <c r="B180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.519999980926514</v>
       </c>
       <c r="C180">
@@ -9751,13 +10497,17 @@
       <c r="D180">
         <v>46</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1551307319.6700001</v>
       </c>
       <c r="B181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.610000133514404</v>
       </c>
       <c r="C181">
@@ -9766,13 +10516,17 @@
       <c r="D181">
         <v>43</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1551307319.77</v>
       </c>
       <c r="B182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.710000038146973</v>
       </c>
       <c r="C182">
@@ -9781,13 +10535,17 @@
       <c r="D182">
         <v>43</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1551307319.8599999</v>
       </c>
       <c r="B183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.799999952316284</v>
       </c>
       <c r="C183">
@@ -9796,13 +10554,17 @@
       <c r="D183">
         <v>42</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1551307319.95</v>
       </c>
       <c r="B184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.890000104904175</v>
       </c>
       <c r="C184">
@@ -9811,13 +10573,17 @@
       <c r="D184">
         <v>43</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1551307320.05</v>
       </c>
       <c r="B185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.990000009536743</v>
       </c>
       <c r="C185">
@@ -9826,13 +10592,17 @@
       <c r="D185">
         <v>44</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1551307320.1400001</v>
       </c>
       <c r="B186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.080000162124634</v>
       </c>
       <c r="C186">
@@ -9841,13 +10611,17 @@
       <c r="D186">
         <v>44</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <f t="shared" si="5"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1551307320.24</v>
       </c>
       <c r="B187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.180000066757202</v>
       </c>
       <c r="C187">
@@ -9856,13 +10630,17 @@
       <c r="D187">
         <v>49</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1551307320.3299999</v>
       </c>
       <c r="B188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.269999980926514</v>
       </c>
       <c r="C188">
@@ -9871,13 +10649,17 @@
       <c r="D188">
         <v>47</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1551307320.4200001</v>
       </c>
       <c r="B189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.360000133514404</v>
       </c>
       <c r="C189">
@@ -9886,13 +10668,17 @@
       <c r="D189">
         <v>48</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1551307320.52</v>
       </c>
       <c r="B190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.460000038146973</v>
       </c>
       <c r="C190">
@@ -9901,13 +10687,17 @@
       <c r="D190">
         <v>45</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1551307320.6099999</v>
       </c>
       <c r="B191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.549999952316284</v>
       </c>
       <c r="C191">
@@ -9916,13 +10706,17 @@
       <c r="D191">
         <v>43</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1551307320.7</v>
       </c>
       <c r="B192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.640000104904175</v>
       </c>
       <c r="C192">
@@ -9931,13 +10725,17 @@
       <c r="D192">
         <v>41</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1551307320.8</v>
       </c>
       <c r="B193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.740000009536743</v>
       </c>
       <c r="C193">
@@ -9946,13 +10744,17 @@
       <c r="D193">
         <v>40</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1551307320.8900001</v>
       </c>
       <c r="B194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.830000162124634</v>
       </c>
       <c r="C194">
@@ -9961,13 +10763,17 @@
       <c r="D194">
         <v>39</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1551307320.98</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B258" si="3">A195-1551307301.06</f>
+        <f t="shared" ref="B195:B258" si="6">A195-1551307301.06</f>
         <v>19.920000076293945</v>
       </c>
       <c r="C195">
@@ -9976,13 +10782,17 @@
       <c r="D195">
         <v>38</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <f t="shared" ref="E195:E258" si="7">ABS((C195-D195)/2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1551307321.0799999</v>
       </c>
       <c r="B196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.019999980926514</v>
       </c>
       <c r="C196">
@@ -9991,13 +10801,17 @@
       <c r="D196">
         <v>38</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1551307321.1700001</v>
       </c>
       <c r="B197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.110000133514404</v>
       </c>
       <c r="C197">
@@ -10006,13 +10820,17 @@
       <c r="D197">
         <v>38</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1551307321.27</v>
       </c>
       <c r="B198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.210000038146973</v>
       </c>
       <c r="C198">
@@ -10021,13 +10839,17 @@
       <c r="D198">
         <v>37</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1551307321.3599999</v>
       </c>
       <c r="B199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.299999952316284</v>
       </c>
       <c r="C199">
@@ -10036,13 +10858,17 @@
       <c r="D199">
         <v>36</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1551307321.45</v>
       </c>
       <c r="B200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.390000104904175</v>
       </c>
       <c r="C200">
@@ -10051,13 +10877,17 @@
       <c r="D200">
         <v>37</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1551307321.53</v>
       </c>
       <c r="B201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.470000028610229</v>
       </c>
       <c r="C201">
@@ -10066,13 +10896,20 @@
       <c r="D201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1551307323.55</v>
       </c>
       <c r="B202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.490000009536743</v>
       </c>
       <c r="C202">
@@ -10081,13 +10918,20 @@
       <c r="D202">
         <v>38</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1551307323.6400001</v>
       </c>
       <c r="B203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.580000162124634</v>
       </c>
       <c r="C203">
@@ -10096,13 +10940,20 @@
       <c r="D203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1551307323.73</v>
       </c>
       <c r="B204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.670000076293945</v>
       </c>
       <c r="C204">
@@ -10111,13 +10962,20 @@
       <c r="D204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1551307323.8299999</v>
       </c>
       <c r="B205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.769999980926514</v>
       </c>
       <c r="C205">
@@ -10126,13 +10984,20 @@
       <c r="D205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1551307323.9200001</v>
       </c>
       <c r="B206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.860000133514404</v>
       </c>
       <c r="C206">
@@ -10141,13 +11006,20 @@
       <c r="D206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1551307324.02</v>
       </c>
       <c r="B207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.960000038146973</v>
       </c>
       <c r="C207">
@@ -10156,13 +11028,20 @@
       <c r="D207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1551307324.1099999</v>
       </c>
       <c r="B208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.049999952316284</v>
       </c>
       <c r="C208">
@@ -10171,13 +11050,20 @@
       <c r="D208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1551307324.2</v>
       </c>
       <c r="B209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.140000104904175</v>
       </c>
       <c r="C209">
@@ -10186,13 +11072,20 @@
       <c r="D209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1551307324.3</v>
       </c>
       <c r="B210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.240000009536743</v>
       </c>
       <c r="C210">
@@ -10201,13 +11094,20 @@
       <c r="D210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1551307324.3900001</v>
       </c>
       <c r="B211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.330000162124634</v>
       </c>
       <c r="C211">
@@ -10216,13 +11116,20 @@
       <c r="D211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1551307324.48</v>
       </c>
       <c r="B212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.420000076293945</v>
       </c>
       <c r="C212">
@@ -10231,13 +11138,20 @@
       <c r="D212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1551307324.5799999</v>
       </c>
       <c r="B213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.519999980926514</v>
       </c>
       <c r="C213">
@@ -10246,13 +11160,20 @@
       <c r="D213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1551307324.6700001</v>
       </c>
       <c r="B214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.610000133514404</v>
       </c>
       <c r="C214">
@@ -10261,13 +11182,20 @@
       <c r="D214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1551307324.77</v>
       </c>
       <c r="B215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.710000038146973</v>
       </c>
       <c r="C215">
@@ -10276,13 +11204,20 @@
       <c r="D215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1551307324.8599999</v>
       </c>
       <c r="B216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.799999952316284</v>
       </c>
       <c r="C216">
@@ -10291,13 +11226,20 @@
       <c r="D216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1551307324.95</v>
       </c>
       <c r="B217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.890000104904175</v>
       </c>
       <c r="C217">
@@ -10306,13 +11248,20 @@
       <c r="D217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1551307325.05</v>
       </c>
       <c r="B218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.990000009536743</v>
       </c>
       <c r="C218">
@@ -10321,13 +11270,20 @@
       <c r="D218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1551307325.1400001</v>
       </c>
       <c r="B219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.080000162124634</v>
       </c>
       <c r="C219">
@@ -10336,13 +11292,20 @@
       <c r="D219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1551307325.23</v>
       </c>
       <c r="B220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.170000076293945</v>
       </c>
       <c r="C220">
@@ -10351,13 +11314,20 @@
       <c r="D220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1551307325.3299999</v>
       </c>
       <c r="B221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.269999980926514</v>
       </c>
       <c r="C221">
@@ -10366,13 +11336,20 @@
       <c r="D221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1551307325.4200001</v>
       </c>
       <c r="B222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.360000133514404</v>
       </c>
       <c r="C222">
@@ -10381,13 +11358,20 @@
       <c r="D222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1551307325.52</v>
       </c>
       <c r="B223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.460000038146973</v>
       </c>
       <c r="C223">
@@ -10396,13 +11380,20 @@
       <c r="D223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1551307325.6099999</v>
       </c>
       <c r="B224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.549999952316284</v>
       </c>
       <c r="C224">
@@ -10411,13 +11402,20 @@
       <c r="D224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1551307325.7</v>
       </c>
       <c r="B225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.640000104904175</v>
       </c>
       <c r="C225">
@@ -10426,13 +11424,20 @@
       <c r="D225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1551307325.8</v>
       </c>
       <c r="B226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.740000009536743</v>
       </c>
       <c r="C226">
@@ -10441,13 +11446,20 @@
       <c r="D226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1551307325.8900001</v>
       </c>
       <c r="B227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.830000162124634</v>
       </c>
       <c r="C227">
@@ -10456,13 +11468,20 @@
       <c r="D227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1551307325.98</v>
       </c>
       <c r="B228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24.920000076293945</v>
       </c>
       <c r="C228">
@@ -10471,13 +11490,20 @@
       <c r="D228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1551307326.0799999</v>
       </c>
       <c r="B229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.019999980926514</v>
       </c>
       <c r="C229">
@@ -10486,13 +11512,20 @@
       <c r="D229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1551307326.1700001</v>
       </c>
       <c r="B230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.110000133514404</v>
       </c>
       <c r="C230">
@@ -10501,13 +11534,20 @@
       <c r="D230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1551307326.27</v>
       </c>
       <c r="B231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.210000038146973</v>
       </c>
       <c r="C231">
@@ -10516,13 +11556,20 @@
       <c r="D231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1551307326.3599999</v>
       </c>
       <c r="B232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.299999952316284</v>
       </c>
       <c r="C232">
@@ -10531,13 +11578,20 @@
       <c r="D232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1551307326.45</v>
       </c>
       <c r="B233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.390000104904175</v>
       </c>
       <c r="C233">
@@ -10546,13 +11600,20 @@
       <c r="D233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1551307326.5899999</v>
       </c>
       <c r="B234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.529999971389771</v>
       </c>
       <c r="C234">
@@ -10561,13 +11622,20 @@
       <c r="D234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1551307326.6800001</v>
       </c>
       <c r="B235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.620000123977661</v>
       </c>
       <c r="C235">
@@ -10576,13 +11644,20 @@
       <c r="D235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1551307326.77</v>
       </c>
       <c r="B236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.710000038146973</v>
       </c>
       <c r="C236">
@@ -10591,13 +11666,20 @@
       <c r="D236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1551307326.8599999</v>
       </c>
       <c r="B237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.799999952316284</v>
       </c>
       <c r="C237">
@@ -10606,13 +11688,20 @@
       <c r="D237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1551307326.95</v>
       </c>
       <c r="B238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.890000104904175</v>
       </c>
       <c r="C238">
@@ -10621,13 +11710,20 @@
       <c r="D238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1551307327.05</v>
       </c>
       <c r="B239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25.990000009536743</v>
       </c>
       <c r="C239">
@@ -10636,13 +11732,20 @@
       <c r="D239">
         <v>68</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <f t="shared" si="7"/>
+        <v>34.5</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1551307327.1400001</v>
       </c>
       <c r="B240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.080000162124634</v>
       </c>
       <c r="C240">
@@ -10651,13 +11754,20 @@
       <c r="D240">
         <v>48</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1551307327.23</v>
       </c>
       <c r="B241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.170000076293945</v>
       </c>
       <c r="C241">
@@ -10666,13 +11776,20 @@
       <c r="D241">
         <v>40</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1551307327.3299999</v>
       </c>
       <c r="B242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.269999980926514</v>
       </c>
       <c r="C242">
@@ -10681,13 +11798,20 @@
       <c r="D242">
         <v>30</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1551307327.4200001</v>
       </c>
       <c r="B243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.360000133514404</v>
       </c>
       <c r="C243">
@@ -10696,13 +11820,17 @@
       <c r="D243">
         <v>20</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1551307327.5699999</v>
       </c>
       <c r="B244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.509999990463257</v>
       </c>
       <c r="C244">
@@ -10711,13 +11839,17 @@
       <c r="D244">
         <v>19</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1551307327.6600001</v>
       </c>
       <c r="B245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.600000143051147</v>
       </c>
       <c r="C245">
@@ -10726,13 +11858,17 @@
       <c r="D245">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <f t="shared" si="7"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1551307327.7</v>
       </c>
       <c r="B246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.640000104904175</v>
       </c>
       <c r="C246">
@@ -10741,13 +11877,17 @@
       <c r="D246">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1551307327.8399999</v>
       </c>
       <c r="B247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.779999971389771</v>
       </c>
       <c r="C247">
@@ -10756,13 +11896,17 @@
       <c r="D247">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <f t="shared" si="7"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1551307327.9300001</v>
       </c>
       <c r="B248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.870000123977661</v>
       </c>
       <c r="C248">
@@ -10771,13 +11915,17 @@
       <c r="D248">
         <v>9</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <f t="shared" si="7"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1551307328.02</v>
       </c>
       <c r="B249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.960000038146973</v>
       </c>
       <c r="C249">
@@ -10786,13 +11934,17 @@
       <c r="D249">
         <v>12</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1551307328.1099999</v>
       </c>
       <c r="B250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.049999952316284</v>
       </c>
       <c r="C250">
@@ -10801,13 +11953,17 @@
       <c r="D250">
         <v>16</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1551307328.21</v>
       </c>
       <c r="B251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.150000095367432</v>
       </c>
       <c r="C251">
@@ -10816,13 +11972,17 @@
       <c r="D251">
         <v>21</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1551307328.3</v>
       </c>
       <c r="B252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.240000009536743</v>
       </c>
       <c r="C252">
@@ -10831,13 +11991,17 @@
       <c r="D252">
         <v>24</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1551307328.3900001</v>
       </c>
       <c r="B253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.330000162124634</v>
       </c>
       <c r="C253">
@@ -10846,13 +12010,17 @@
       <c r="D253">
         <v>26</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1551307328.49</v>
       </c>
       <c r="B254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.430000066757202</v>
       </c>
       <c r="C254">
@@ -10861,13 +12029,17 @@
       <c r="D254">
         <v>26</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <f t="shared" si="7"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1551307328.5799999</v>
       </c>
       <c r="B255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.519999980926514</v>
       </c>
       <c r="C255">
@@ -10876,13 +12048,17 @@
       <c r="D255">
         <v>27</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1551307328.6700001</v>
       </c>
       <c r="B256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.610000133514404</v>
       </c>
       <c r="C256">
@@ -10891,13 +12067,17 @@
       <c r="D256">
         <v>28</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1551307328.77</v>
       </c>
       <c r="B257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.710000038146973</v>
       </c>
       <c r="C257">
@@ -10906,13 +12086,17 @@
       <c r="D257">
         <v>28</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1551307328.8599999</v>
       </c>
       <c r="B258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.799999952316284</v>
       </c>
       <c r="C258">
@@ -10921,13 +12105,17 @@
       <c r="D258">
         <v>30</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1551307328.96</v>
       </c>
       <c r="B259">
-        <f t="shared" ref="B259:B322" si="4">A259-1551307301.06</f>
+        <f t="shared" ref="B259:B322" si="8">A259-1551307301.06</f>
         <v>27.900000095367432</v>
       </c>
       <c r="C259">
@@ -10936,13 +12124,17 @@
       <c r="D259">
         <v>32</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <f t="shared" ref="E259:E322" si="9">ABS((C259-D259)/2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1551307329.05</v>
       </c>
       <c r="B260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>27.990000009536743</v>
       </c>
       <c r="C260">
@@ -10951,13 +12143,17 @@
       <c r="D260">
         <v>34</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1551307329.1400001</v>
       </c>
       <c r="B261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.080000162124634</v>
       </c>
       <c r="C261">
@@ -10966,13 +12162,17 @@
       <c r="D261">
         <v>37</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1551307329.24</v>
       </c>
       <c r="B262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.180000066757202</v>
       </c>
       <c r="C262">
@@ -10981,13 +12181,17 @@
       <c r="D262">
         <v>39</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1551307329.3299999</v>
       </c>
       <c r="B263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.269999980926514</v>
       </c>
       <c r="C263">
@@ -10996,13 +12200,17 @@
       <c r="D263">
         <v>40</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1551307329.4200001</v>
       </c>
       <c r="B264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.360000133514404</v>
       </c>
       <c r="C264">
@@ -11011,13 +12219,17 @@
       <c r="D264">
         <v>41</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <f t="shared" si="9"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1551307329.52</v>
       </c>
       <c r="B265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.460000038146973</v>
       </c>
       <c r="C265">
@@ -11026,13 +12238,17 @@
       <c r="D265">
         <v>43</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <f t="shared" si="9"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1551307329.6099999</v>
       </c>
       <c r="B266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.549999952316284</v>
       </c>
       <c r="C266">
@@ -11041,13 +12257,17 @@
       <c r="D266">
         <v>44</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <f t="shared" si="9"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1551307329.71</v>
       </c>
       <c r="B267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.650000095367432</v>
       </c>
       <c r="C267">
@@ -11056,13 +12276,17 @@
       <c r="D267">
         <v>44</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1551307329.8</v>
       </c>
       <c r="B268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.740000009536743</v>
       </c>
       <c r="C268">
@@ -11071,13 +12295,17 @@
       <c r="D268">
         <v>46</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1551307329.8900001</v>
       </c>
       <c r="B269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.830000162124634</v>
       </c>
       <c r="C269">
@@ -11086,13 +12314,17 @@
       <c r="D269">
         <v>47</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1551307329.99</v>
       </c>
       <c r="B270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>28.930000066757202</v>
       </c>
       <c r="C270">
@@ -11101,13 +12333,17 @@
       <c r="D270">
         <v>46</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <f t="shared" si="9"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1551307330.0799999</v>
       </c>
       <c r="B271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.019999980926514</v>
       </c>
       <c r="C271">
@@ -11116,13 +12352,17 @@
       <c r="D271">
         <v>45</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1551307330.1700001</v>
       </c>
       <c r="B272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.110000133514404</v>
       </c>
       <c r="C272">
@@ -11131,13 +12371,17 @@
       <c r="D272">
         <v>45</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1551307330.27</v>
       </c>
       <c r="B273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.210000038146973</v>
       </c>
       <c r="C273">
@@ -11146,13 +12390,17 @@
       <c r="D273">
         <v>46</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1551307330.3599999</v>
       </c>
       <c r="B274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.299999952316284</v>
       </c>
       <c r="C274">
@@ -11161,13 +12409,17 @@
       <c r="D274">
         <v>46</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1551307330.46</v>
       </c>
       <c r="B275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.400000095367432</v>
       </c>
       <c r="C275">
@@ -11176,13 +12428,17 @@
       <c r="D275">
         <v>45</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1551307330.55</v>
       </c>
       <c r="B276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.490000009536743</v>
       </c>
       <c r="C276">
@@ -11191,13 +12447,17 @@
       <c r="D276">
         <v>47</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <f t="shared" si="9"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1551307330.6400001</v>
       </c>
       <c r="B277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.580000162124634</v>
       </c>
       <c r="C277">
@@ -11206,13 +12466,17 @@
       <c r="D277">
         <v>48</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <f t="shared" si="9"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1551307330.74</v>
       </c>
       <c r="B278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.680000066757202</v>
       </c>
       <c r="C278">
@@ -11221,13 +12485,17 @@
       <c r="D278">
         <v>49</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <f t="shared" si="9"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1551307330.8299999</v>
       </c>
       <c r="B279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.769999980926514</v>
       </c>
       <c r="C279">
@@ -11236,13 +12504,17 @@
       <c r="D279">
         <v>49</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <f t="shared" si="9"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1551307330.9200001</v>
       </c>
       <c r="B280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.860000133514404</v>
       </c>
       <c r="C280">
@@ -11251,13 +12523,17 @@
       <c r="D280">
         <v>48</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <f t="shared" si="9"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1551307331.02</v>
       </c>
       <c r="B281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>29.960000038146973</v>
       </c>
       <c r="C281">
@@ -11266,13 +12542,17 @@
       <c r="D281">
         <v>45</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1551307331.1099999</v>
       </c>
       <c r="B282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.049999952316284</v>
       </c>
       <c r="C282">
@@ -11281,13 +12561,17 @@
       <c r="D282">
         <v>51</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1551307331.21</v>
       </c>
       <c r="B283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.150000095367432</v>
       </c>
       <c r="C283">
@@ -11296,13 +12580,17 @@
       <c r="D283">
         <v>50</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1551307331.3</v>
       </c>
       <c r="B284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.240000009536743</v>
       </c>
       <c r="C284">
@@ -11311,13 +12599,17 @@
       <c r="D284">
         <v>49</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1551307331.3900001</v>
       </c>
       <c r="B285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.330000162124634</v>
       </c>
       <c r="C285">
@@ -11326,13 +12618,17 @@
       <c r="D285">
         <v>48</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1551307331.49</v>
       </c>
       <c r="B286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.430000066757202</v>
       </c>
       <c r="C286">
@@ -11341,13 +12637,17 @@
       <c r="D286">
         <v>51</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1551307331.5799999</v>
       </c>
       <c r="B287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.519999980926514</v>
       </c>
       <c r="C287">
@@ -11356,13 +12656,17 @@
       <c r="D287">
         <v>54</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1551307331.6700001</v>
       </c>
       <c r="B288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.610000133514404</v>
       </c>
       <c r="C288">
@@ -11371,13 +12675,17 @@
       <c r="D288">
         <v>55</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1551307331.77</v>
       </c>
       <c r="B289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.710000038146973</v>
       </c>
       <c r="C289">
@@ -11386,13 +12694,17 @@
       <c r="D289">
         <v>55</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1551307331.8599999</v>
       </c>
       <c r="B290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.799999952316284</v>
       </c>
       <c r="C290">
@@ -11401,13 +12713,17 @@
       <c r="D290">
         <v>54</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1551307331.96</v>
       </c>
       <c r="B291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.900000095367432</v>
       </c>
       <c r="C291">
@@ -11416,13 +12732,17 @@
       <c r="D291">
         <v>52</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291">
+        <f t="shared" si="9"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1551307332.05</v>
       </c>
       <c r="B292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30.990000009536743</v>
       </c>
       <c r="C292">
@@ -11431,13 +12751,17 @@
       <c r="D292">
         <v>47</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1551307332.1400001</v>
       </c>
       <c r="B293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.080000162124634</v>
       </c>
       <c r="C293">
@@ -11446,13 +12770,17 @@
       <c r="D293">
         <v>43</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293">
+        <f t="shared" si="9"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1551307332.24</v>
       </c>
       <c r="B294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.180000066757202</v>
       </c>
       <c r="C294">
@@ -11461,13 +12789,17 @@
       <c r="D294">
         <v>42</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1551307332.3299999</v>
       </c>
       <c r="B295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.269999980926514</v>
       </c>
       <c r="C295">
@@ -11476,13 +12808,17 @@
       <c r="D295">
         <v>41</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1551307332.4200001</v>
       </c>
       <c r="B296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.360000133514404</v>
       </c>
       <c r="C296">
@@ -11491,13 +12827,17 @@
       <c r="D296">
         <v>40</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1551307332.52</v>
       </c>
       <c r="B297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.460000038146973</v>
       </c>
       <c r="C297">
@@ -11506,13 +12846,17 @@
       <c r="D297">
         <v>40</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1551307332.6099999</v>
       </c>
       <c r="B298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.549999952316284</v>
       </c>
       <c r="C298">
@@ -11521,13 +12865,17 @@
       <c r="D298">
         <v>39</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298">
+        <f t="shared" si="9"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1551307332.7</v>
       </c>
       <c r="B299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.640000104904175</v>
       </c>
       <c r="C299">
@@ -11536,13 +12884,17 @@
       <c r="D299">
         <v>38</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299">
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1551307332.8</v>
       </c>
       <c r="B300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.740000009536743</v>
       </c>
       <c r="C300">
@@ -11551,13 +12903,17 @@
       <c r="D300">
         <v>37</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1551307332.8900001</v>
       </c>
       <c r="B301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.830000162124634</v>
       </c>
       <c r="C301">
@@ -11566,13 +12922,17 @@
       <c r="D301">
         <v>36</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1551307332.99</v>
       </c>
       <c r="B302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31.930000066757202</v>
       </c>
       <c r="C302">
@@ -11581,13 +12941,17 @@
       <c r="D302">
         <v>36</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1551307333.0799999</v>
       </c>
       <c r="B303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32.019999980926514</v>
       </c>
       <c r="C303">
@@ -11596,13 +12960,17 @@
       <c r="D303">
         <v>35</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1551307333.1700001</v>
       </c>
       <c r="B304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32.110000133514404</v>
       </c>
       <c r="C304">
@@ -11611,13 +12979,17 @@
       <c r="D304">
         <v>34</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1551307333.27</v>
       </c>
       <c r="B305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32.210000038146973</v>
       </c>
       <c r="C305">
@@ -11626,13 +12998,17 @@
       <c r="D305">
         <v>33</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1551307333.3599999</v>
       </c>
       <c r="B306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32.299999952316284</v>
       </c>
       <c r="C306">
@@ -11641,13 +13017,17 @@
       <c r="D306">
         <v>33</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1551307333.45</v>
       </c>
       <c r="B307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32.390000104904175</v>
       </c>
       <c r="C307">
@@ -11656,13 +13036,17 @@
       <c r="D307">
         <v>33</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1551307333.55</v>
       </c>
       <c r="B308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32.490000009536743</v>
       </c>
       <c r="C308">
@@ -11671,13 +13055,17 @@
       <c r="D308">
         <v>33</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1551307333.6199999</v>
       </c>
       <c r="B309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32.559999942779541</v>
       </c>
       <c r="C309">
@@ -11686,13 +13074,20 @@
       <c r="D309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1551307335.6400001</v>
       </c>
       <c r="B310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34.580000162124634</v>
       </c>
       <c r="C310">
@@ -11701,13 +13096,20 @@
       <c r="D310">
         <v>32</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1551307335.73</v>
       </c>
       <c r="B311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34.670000076293945</v>
       </c>
       <c r="C311">
@@ -11716,13 +13118,20 @@
       <c r="D311">
         <v>15</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1551307335.8299999</v>
       </c>
       <c r="B312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34.769999980926514</v>
       </c>
       <c r="C312">
@@ -11731,13 +13140,20 @@
       <c r="D312">
         <v>21</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312">
+        <f t="shared" si="9"/>
+        <v>11.5</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1551307335.9200001</v>
       </c>
       <c r="B313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34.860000133514404</v>
       </c>
       <c r="C313">
@@ -11746,13 +13162,20 @@
       <c r="D313">
         <v>25</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1551307336.02</v>
       </c>
       <c r="B314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34.960000038146973</v>
       </c>
       <c r="C314">
@@ -11761,13 +13184,17 @@
       <c r="D314">
         <v>28</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1551307336.1099999</v>
       </c>
       <c r="B315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35.049999952316284</v>
       </c>
       <c r="C315">
@@ -11776,13 +13203,17 @@
       <c r="D315">
         <v>30</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1551307336.2</v>
       </c>
       <c r="B316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35.140000104904175</v>
       </c>
       <c r="C316">
@@ -11791,13 +13222,17 @@
       <c r="D316">
         <v>32</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1551307336.3</v>
       </c>
       <c r="B317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35.240000009536743</v>
       </c>
       <c r="C317">
@@ -11806,13 +13241,17 @@
       <c r="D317">
         <v>32</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1551307336.3900001</v>
       </c>
       <c r="B318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35.330000162124634</v>
       </c>
       <c r="C318">
@@ -11821,13 +13260,17 @@
       <c r="D318">
         <v>32</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1551307336.48</v>
       </c>
       <c r="B319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35.420000076293945</v>
       </c>
       <c r="C319">
@@ -11836,13 +13279,17 @@
       <c r="D319">
         <v>33</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1551307336.5799999</v>
       </c>
       <c r="B320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35.519999980926514</v>
       </c>
       <c r="C320">
@@ -11851,13 +13298,17 @@
       <c r="D320">
         <v>33</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1551307336.6700001</v>
       </c>
       <c r="B321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35.610000133514404</v>
       </c>
       <c r="C321">
@@ -11866,13 +13317,17 @@
       <c r="D321">
         <v>33</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1551307336.77</v>
       </c>
       <c r="B322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35.710000038146973</v>
       </c>
       <c r="C322">
@@ -11881,13 +13336,17 @@
       <c r="D322">
         <v>34</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1551307336.8599999</v>
       </c>
       <c r="B323">
-        <f t="shared" ref="B323:B386" si="5">A323-1551307301.06</f>
+        <f t="shared" ref="B323:B386" si="10">A323-1551307301.06</f>
         <v>35.799999952316284</v>
       </c>
       <c r="C323">
@@ -11896,13 +13355,17 @@
       <c r="D323">
         <v>34</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323">
+        <f t="shared" ref="E323:E386" si="11">ABS((C323-D323)/2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1551307336.95</v>
       </c>
       <c r="B324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>35.890000104904175</v>
       </c>
       <c r="C324">
@@ -11911,13 +13374,17 @@
       <c r="D324">
         <v>34</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1551307337.05</v>
       </c>
       <c r="B325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>35.990000009536743</v>
       </c>
       <c r="C325">
@@ -11926,13 +13393,17 @@
       <c r="D325">
         <v>35</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1551307337.1400001</v>
       </c>
       <c r="B326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.080000162124634</v>
       </c>
       <c r="C326">
@@ -11941,13 +13412,17 @@
       <c r="D326">
         <v>35</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1551307337.23</v>
       </c>
       <c r="B327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.170000076293945</v>
       </c>
       <c r="C327">
@@ -11956,13 +13431,17 @@
       <c r="D327">
         <v>38</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1551307337.3299999</v>
       </c>
       <c r="B328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.269999980926514</v>
       </c>
       <c r="C328">
@@ -11971,13 +13450,17 @@
       <c r="D328">
         <v>41</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1551307337.4200001</v>
       </c>
       <c r="B329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.360000133514404</v>
       </c>
       <c r="C329">
@@ -11986,13 +13469,17 @@
       <c r="D329">
         <v>44</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1551307337.52</v>
       </c>
       <c r="B330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.460000038146973</v>
       </c>
       <c r="C330">
@@ -12001,13 +13488,17 @@
       <c r="D330">
         <v>50</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1551307337.6099999</v>
       </c>
       <c r="B331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.549999952316284</v>
       </c>
       <c r="C331">
@@ -12016,13 +13507,17 @@
       <c r="D331">
         <v>54</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1551307337.7</v>
       </c>
       <c r="B332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.640000104904175</v>
       </c>
       <c r="C332">
@@ -12031,13 +13526,17 @@
       <c r="D332">
         <v>51</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1551307337.8</v>
       </c>
       <c r="B333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.740000009536743</v>
       </c>
       <c r="C333">
@@ -12046,13 +13545,17 @@
       <c r="D333">
         <v>51</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333">
+        <f t="shared" si="11"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1551307337.8900001</v>
       </c>
       <c r="B334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.830000162124634</v>
       </c>
       <c r="C334">
@@ -12061,13 +13564,17 @@
       <c r="D334">
         <v>51</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334">
+        <f t="shared" si="11"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1551307337.98</v>
       </c>
       <c r="B335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.920000076293945</v>
       </c>
       <c r="C335">
@@ -12076,13 +13583,17 @@
       <c r="D335">
         <v>51</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1551307338.0799999</v>
       </c>
       <c r="B336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.019999980926514</v>
       </c>
       <c r="C336">
@@ -12091,13 +13602,17 @@
       <c r="D336">
         <v>50</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1551307338.1700001</v>
       </c>
       <c r="B337">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.110000133514404</v>
       </c>
       <c r="C337">
@@ -12106,13 +13621,17 @@
       <c r="D337">
         <v>49</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1551307338.27</v>
       </c>
       <c r="B338">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.210000038146973</v>
       </c>
       <c r="C338">
@@ -12121,13 +13640,17 @@
       <c r="D338">
         <v>48</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1551307338.3599999</v>
       </c>
       <c r="B339">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.299999952316284</v>
       </c>
       <c r="C339">
@@ -12136,13 +13659,17 @@
       <c r="D339">
         <v>51</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1551307338.45</v>
       </c>
       <c r="B340">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.390000104904175</v>
       </c>
       <c r="C340">
@@ -12151,13 +13678,17 @@
       <c r="D340">
         <v>52</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1551307338.55</v>
       </c>
       <c r="B341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.490000009536743</v>
       </c>
       <c r="C341">
@@ -12166,13 +13697,17 @@
       <c r="D341">
         <v>52</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1551307338.6400001</v>
       </c>
       <c r="B342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.580000162124634</v>
       </c>
       <c r="C342">
@@ -12181,13 +13716,17 @@
       <c r="D342">
         <v>49</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1551307338.73</v>
       </c>
       <c r="B343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.670000076293945</v>
       </c>
       <c r="C343">
@@ -12196,13 +13735,17 @@
       <c r="D343">
         <v>47</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1551307338.8299999</v>
       </c>
       <c r="B344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.769999980926514</v>
       </c>
       <c r="C344">
@@ -12211,13 +13754,17 @@
       <c r="D344">
         <v>45</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344">
+        <f t="shared" si="11"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1551307338.9200001</v>
       </c>
       <c r="B345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.860000133514404</v>
       </c>
       <c r="C345">
@@ -12226,13 +13773,17 @@
       <c r="D345">
         <v>44</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1551307339.01</v>
       </c>
       <c r="B346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.950000047683716</v>
       </c>
       <c r="C346">
@@ -12241,13 +13792,17 @@
       <c r="D346">
         <v>43</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1551307339.1500001</v>
       </c>
       <c r="B347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.090000152587891</v>
       </c>
       <c r="C347">
@@ -12256,13 +13811,17 @@
       <c r="D347">
         <v>41</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1551307339.24</v>
       </c>
       <c r="B348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.180000066757202</v>
       </c>
       <c r="C348">
@@ -12271,13 +13830,17 @@
       <c r="D348">
         <v>40</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1551307339.3299999</v>
       </c>
       <c r="B349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.269999980926514</v>
       </c>
       <c r="C349">
@@ -12286,13 +13849,17 @@
       <c r="D349">
         <v>38</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1551307339.4200001</v>
       </c>
       <c r="B350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.360000133514404</v>
       </c>
       <c r="C350">
@@ -12301,13 +13868,17 @@
       <c r="D350">
         <v>38</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1551307339.52</v>
       </c>
       <c r="B351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.460000038146973</v>
       </c>
       <c r="C351">
@@ -12316,13 +13887,17 @@
       <c r="D351">
         <v>37</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1551307339.6099999</v>
       </c>
       <c r="B352">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.549999952316284</v>
       </c>
       <c r="C352">
@@ -12331,13 +13906,17 @@
       <c r="D352">
         <v>37</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1551307339.7</v>
       </c>
       <c r="B353">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.640000104904175</v>
       </c>
       <c r="C353">
@@ -12346,13 +13925,17 @@
       <c r="D353">
         <v>36</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1551307339.8</v>
       </c>
       <c r="B354">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.740000009536743</v>
       </c>
       <c r="C354">
@@ -12361,13 +13944,17 @@
       <c r="D354">
         <v>36</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1551307339.9400001</v>
       </c>
       <c r="B355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.880000114440918</v>
       </c>
       <c r="C355">
@@ -12376,13 +13963,17 @@
       <c r="D355">
         <v>36</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1551307340.03</v>
       </c>
       <c r="B356">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>38.970000028610229</v>
       </c>
       <c r="C356">
@@ -12391,13 +13982,17 @@
       <c r="D356">
         <v>35</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1551307340.1199999</v>
       </c>
       <c r="B357">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.059999942779541</v>
       </c>
       <c r="C357">
@@ -12406,13 +14001,17 @@
       <c r="D357">
         <v>34</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1551307340.21</v>
       </c>
       <c r="B358">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.150000095367432</v>
       </c>
       <c r="C358">
@@ -12421,13 +14020,17 @@
       <c r="D358">
         <v>34</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1551307340.3</v>
       </c>
       <c r="B359">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.240000009536743</v>
       </c>
       <c r="C359">
@@ -12436,13 +14039,17 @@
       <c r="D359">
         <v>34</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1551307340.3900001</v>
       </c>
       <c r="B360">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.330000162124634</v>
       </c>
       <c r="C360">
@@ -12451,13 +14058,17 @@
       <c r="D360">
         <v>33</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1551307340.48</v>
       </c>
       <c r="B361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.420000076293945</v>
       </c>
       <c r="C361">
@@ -12466,13 +14077,17 @@
       <c r="D361">
         <v>32</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1551307340.5799999</v>
       </c>
       <c r="B362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.519999980926514</v>
       </c>
       <c r="C362">
@@ -12481,13 +14096,17 @@
       <c r="D362">
         <v>32</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1551307340.6700001</v>
       </c>
       <c r="B363">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.610000133514404</v>
       </c>
       <c r="C363">
@@ -12496,13 +14115,17 @@
       <c r="D363">
         <v>32</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1551307340.76</v>
       </c>
       <c r="B364">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.700000047683716</v>
       </c>
       <c r="C364">
@@ -12511,13 +14134,17 @@
       <c r="D364">
         <v>31</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1551307340.8599999</v>
       </c>
       <c r="B365">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.799999952316284</v>
       </c>
       <c r="C365">
@@ -12526,13 +14153,17 @@
       <c r="D365">
         <v>31</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1551307340.95</v>
       </c>
       <c r="B366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.890000104904175</v>
       </c>
       <c r="C366">
@@ -12541,13 +14172,17 @@
       <c r="D366">
         <v>31</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1551307341.05</v>
       </c>
       <c r="B367">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39.990000009536743</v>
       </c>
       <c r="C367">
@@ -12556,13 +14191,17 @@
       <c r="D367">
         <v>31</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1551307341.1400001</v>
       </c>
       <c r="B368">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.080000162124634</v>
       </c>
       <c r="C368">
@@ -12571,13 +14210,17 @@
       <c r="D368">
         <v>32</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1551307341.23</v>
       </c>
       <c r="B369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.170000076293945</v>
       </c>
       <c r="C369">
@@ -12586,13 +14229,17 @@
       <c r="D369">
         <v>32</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1551307341.3299999</v>
       </c>
       <c r="B370">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.269999980926514</v>
       </c>
       <c r="C370">
@@ -12601,13 +14248,17 @@
       <c r="D370">
         <v>32</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1551307341.4200001</v>
       </c>
       <c r="B371">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.360000133514404</v>
       </c>
       <c r="C371">
@@ -12616,13 +14267,17 @@
       <c r="D371">
         <v>32</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1551307341.51</v>
       </c>
       <c r="B372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.450000047683716</v>
       </c>
       <c r="C372">
@@ -12631,13 +14286,17 @@
       <c r="D372">
         <v>32</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1551307341.6099999</v>
       </c>
       <c r="B373">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.549999952316284</v>
       </c>
       <c r="C373">
@@ -12646,13 +14305,17 @@
       <c r="D373">
         <v>32</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1551307341.7</v>
       </c>
       <c r="B374">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.640000104904175</v>
       </c>
       <c r="C374">
@@ -12661,13 +14324,17 @@
       <c r="D374">
         <v>32</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1551307341.8</v>
       </c>
       <c r="B375">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.740000009536743</v>
       </c>
       <c r="C375">
@@ -12676,13 +14343,17 @@
       <c r="D375">
         <v>32</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1551307341.8900001</v>
       </c>
       <c r="B376">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.830000162124634</v>
       </c>
       <c r="C376">
@@ -12691,13 +14362,17 @@
       <c r="D376">
         <v>32</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1551307341.98</v>
       </c>
       <c r="B377">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40.920000076293945</v>
       </c>
       <c r="C377">
@@ -12706,13 +14381,17 @@
       <c r="D377">
         <v>32</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1551307342.0799999</v>
       </c>
       <c r="B378">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.019999980926514</v>
       </c>
       <c r="C378">
@@ -12721,13 +14400,17 @@
       <c r="D378">
         <v>32</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1551307342.1700001</v>
       </c>
       <c r="B379">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.110000133514404</v>
       </c>
       <c r="C379">
@@ -12736,13 +14419,17 @@
       <c r="D379">
         <v>32</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1551307342.27</v>
       </c>
       <c r="B380">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.210000038146973</v>
       </c>
       <c r="C380">
@@ -12751,13 +14438,17 @@
       <c r="D380">
         <v>32</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1551307342.3599999</v>
       </c>
       <c r="B381">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.299999952316284</v>
       </c>
       <c r="C381">
@@ -12766,13 +14457,17 @@
       <c r="D381">
         <v>32</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1551307342.45</v>
       </c>
       <c r="B382">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.390000104904175</v>
       </c>
       <c r="C382">
@@ -12781,13 +14476,17 @@
       <c r="D382">
         <v>32</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1551307342.55</v>
       </c>
       <c r="B383">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.490000009536743</v>
       </c>
       <c r="C383">
@@ -12796,13 +14495,17 @@
       <c r="D383">
         <v>32</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1551307342.6400001</v>
       </c>
       <c r="B384">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.580000162124634</v>
       </c>
       <c r="C384">
@@ -12811,13 +14514,17 @@
       <c r="D384">
         <v>32</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1551307342.73</v>
       </c>
       <c r="B385">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.670000076293945</v>
       </c>
       <c r="C385">
@@ -12826,13 +14533,17 @@
       <c r="D385">
         <v>32</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1551307342.8299999</v>
       </c>
       <c r="B386">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.769999980926514</v>
       </c>
       <c r="C386">
@@ -12841,13 +14552,17 @@
       <c r="D386">
         <v>32</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1551307342.9200001</v>
       </c>
       <c r="B387">
-        <f t="shared" ref="B387:B432" si="6">A387-1551307301.06</f>
+        <f t="shared" ref="B387:B432" si="12">A387-1551307301.06</f>
         <v>41.860000133514404</v>
       </c>
       <c r="C387">
@@ -12856,13 +14571,17 @@
       <c r="D387">
         <v>32</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387">
+        <f t="shared" ref="E387:E450" si="13">ABS((C387-D387)/2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1551307343.01</v>
       </c>
       <c r="B388">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>41.950000047683716</v>
       </c>
       <c r="C388">
@@ -12871,13 +14590,17 @@
       <c r="D388">
         <v>33</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1551307343.1099999</v>
       </c>
       <c r="B389">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.049999952316284</v>
       </c>
       <c r="C389">
@@ -12886,13 +14609,17 @@
       <c r="D389">
         <v>34</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1551307343.2</v>
       </c>
       <c r="B390">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.140000104904175</v>
       </c>
       <c r="C390">
@@ -12901,13 +14628,17 @@
       <c r="D390">
         <v>35</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1551307343.3</v>
       </c>
       <c r="B391">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.240000009536743</v>
       </c>
       <c r="C391">
@@ -12916,13 +14647,17 @@
       <c r="D391">
         <v>38</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391">
+        <f t="shared" si="13"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1551307343.3900001</v>
       </c>
       <c r="B392">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.330000162124634</v>
       </c>
       <c r="C392">
@@ -12931,13 +14666,17 @@
       <c r="D392">
         <v>40</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1551307343.48</v>
       </c>
       <c r="B393">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.420000076293945</v>
       </c>
       <c r="C393">
@@ -12946,13 +14685,17 @@
       <c r="D393">
         <v>40</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393">
+        <f t="shared" si="13"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1551307343.5799999</v>
       </c>
       <c r="B394">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.519999980926514</v>
       </c>
       <c r="C394">
@@ -12961,13 +14704,17 @@
       <c r="D394">
         <v>41</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1551307343.6700001</v>
       </c>
       <c r="B395">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.610000133514404</v>
       </c>
       <c r="C395">
@@ -12976,13 +14723,17 @@
       <c r="D395">
         <v>40</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395">
+        <f t="shared" si="13"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1551307343.76</v>
       </c>
       <c r="B396">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.700000047683716</v>
       </c>
       <c r="C396">
@@ -12991,13 +14742,17 @@
       <c r="D396">
         <v>40</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396">
+        <f t="shared" si="13"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1551307343.8599999</v>
       </c>
       <c r="B397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.799999952316284</v>
       </c>
       <c r="C397">
@@ -13006,13 +14761,17 @@
       <c r="D397">
         <v>40</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1551307343.95</v>
       </c>
       <c r="B398">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.890000104904175</v>
       </c>
       <c r="C398">
@@ -13021,13 +14780,17 @@
       <c r="D398">
         <v>39</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1551307344.05</v>
       </c>
       <c r="B399">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.990000009536743</v>
       </c>
       <c r="C399">
@@ -13036,13 +14799,17 @@
       <c r="D399">
         <v>38</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399">
+        <f t="shared" si="13"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1551307344.1400001</v>
       </c>
       <c r="B400">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.080000162124634</v>
       </c>
       <c r="C400">
@@ -13051,13 +14818,17 @@
       <c r="D400">
         <v>38</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1551307344.23</v>
       </c>
       <c r="B401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.170000076293945</v>
       </c>
       <c r="C401">
@@ -13066,13 +14837,17 @@
       <c r="D401">
         <v>39</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401">
+        <f t="shared" si="13"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1551307344.3299999</v>
       </c>
       <c r="B402">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.269999980926514</v>
       </c>
       <c r="C402">
@@ -13081,13 +14856,17 @@
       <c r="D402">
         <v>40</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1551307344.4200001</v>
       </c>
       <c r="B403">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.360000133514404</v>
       </c>
       <c r="C403">
@@ -13096,13 +14875,17 @@
       <c r="D403">
         <v>43</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1551307344.52</v>
       </c>
       <c r="B404">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.460000038146973</v>
       </c>
       <c r="C404">
@@ -13111,13 +14894,17 @@
       <c r="D404">
         <v>45</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1551307344.6099999</v>
       </c>
       <c r="B405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.549999952316284</v>
       </c>
       <c r="C405">
@@ -13126,13 +14913,17 @@
       <c r="D405">
         <v>46</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1551307344.7</v>
       </c>
       <c r="B406">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.640000104904175</v>
       </c>
       <c r="C406">
@@ -13141,13 +14932,17 @@
       <c r="D406">
         <v>46</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1551307344.8</v>
       </c>
       <c r="B407">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.740000009536743</v>
       </c>
       <c r="C407">
@@ -13156,13 +14951,17 @@
       <c r="D407">
         <v>44</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1551307344.8900001</v>
       </c>
       <c r="B408">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.830000162124634</v>
       </c>
       <c r="C408">
@@ -13171,13 +14970,17 @@
       <c r="D408">
         <v>42</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1551307344.98</v>
       </c>
       <c r="B409">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>43.920000076293945</v>
       </c>
       <c r="C409">
@@ -13186,13 +14989,17 @@
       <c r="D409">
         <v>41</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1551307345.0799999</v>
       </c>
       <c r="B410">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.019999980926514</v>
       </c>
       <c r="C410">
@@ -13201,13 +15008,17 @@
       <c r="D410">
         <v>41</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410">
+        <f t="shared" si="13"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1551307345.1700001</v>
       </c>
       <c r="B411">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.110000133514404</v>
       </c>
       <c r="C411">
@@ -13216,13 +15027,17 @@
       <c r="D411">
         <v>45</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1551307345.26</v>
       </c>
       <c r="B412">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.200000047683716</v>
       </c>
       <c r="C412">
@@ -13231,13 +15046,17 @@
       <c r="D412">
         <v>44</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412">
+        <f t="shared" si="13"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1551307345.3599999</v>
       </c>
       <c r="B413">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.299999952316284</v>
       </c>
       <c r="C413">
@@ -13246,13 +15065,17 @@
       <c r="D413">
         <v>47</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413">
+        <f t="shared" si="13"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1551307345.45</v>
       </c>
       <c r="B414">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.390000104904175</v>
       </c>
       <c r="C414">
@@ -13261,13 +15084,17 @@
       <c r="D414">
         <v>48</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414">
+        <f t="shared" si="13"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1551307345.54</v>
       </c>
       <c r="B415">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.480000019073486</v>
       </c>
       <c r="C415">
@@ -13276,13 +15103,17 @@
       <c r="D415">
         <v>48</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1551307345.6400001</v>
       </c>
       <c r="B416">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.580000162124634</v>
       </c>
       <c r="C416">
@@ -13291,13 +15122,17 @@
       <c r="D416">
         <v>48</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E416">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1551307345.71</v>
       </c>
       <c r="B417">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.650000095367432</v>
       </c>
       <c r="C417">
@@ -13306,13 +15141,20 @@
       <c r="D417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1551307347.74</v>
       </c>
       <c r="B418">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>46.680000066757202</v>
       </c>
       <c r="C418">
@@ -13321,13 +15163,20 @@
       <c r="D418">
         <v>44</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418">
+        <f t="shared" si="13"/>
+        <v>11.5</v>
+      </c>
+      <c r="F418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1551307347.8299999</v>
       </c>
       <c r="B419">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>46.769999980926514</v>
       </c>
       <c r="C419">
@@ -13336,13 +15185,20 @@
       <c r="D419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1551307347.9200001</v>
       </c>
       <c r="B420">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>46.860000133514404</v>
       </c>
       <c r="C420">
@@ -13351,13 +15207,20 @@
       <c r="D420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1551307348.02</v>
       </c>
       <c r="B421">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>46.960000038146973</v>
       </c>
       <c r="C421">
@@ -13366,13 +15229,20 @@
       <c r="D421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1551307348.1099999</v>
       </c>
       <c r="B422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.049999952316284</v>
       </c>
       <c r="C422">
@@ -13381,13 +15251,20 @@
       <c r="D422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1551307348.2</v>
       </c>
       <c r="B423">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.140000104904175</v>
       </c>
       <c r="C423">
@@ -13396,13 +15273,20 @@
       <c r="D423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1551307348.3399999</v>
       </c>
       <c r="B424">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.279999971389771</v>
       </c>
       <c r="C424">
@@ -13411,13 +15295,20 @@
       <c r="D424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E424">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1551307348.4300001</v>
       </c>
       <c r="B425">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.370000123977661</v>
       </c>
       <c r="C425">
@@ -13426,13 +15317,20 @@
       <c r="D425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E425">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1551307348.52</v>
       </c>
       <c r="B426">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.460000038146973</v>
       </c>
       <c r="C426">
@@ -13441,13 +15339,20 @@
       <c r="D426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E426">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1551307348.6099999</v>
       </c>
       <c r="B427">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.549999952316284</v>
       </c>
       <c r="C427">
@@ -13456,13 +15361,20 @@
       <c r="D427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E427">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1551307348.7</v>
       </c>
       <c r="B428">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.640000104904175</v>
       </c>
       <c r="C428">
@@ -13471,13 +15383,20 @@
       <c r="D428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E428">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1551307348.8</v>
       </c>
       <c r="B429">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.740000009536743</v>
       </c>
       <c r="C429">
@@ -13486,13 +15405,20 @@
       <c r="D429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E429">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1551307348.8900001</v>
       </c>
       <c r="B430">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.830000162124634</v>
       </c>
       <c r="C430">
@@ -13501,13 +15427,20 @@
       <c r="D430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E430">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1551307348.98</v>
       </c>
       <c r="B431">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.920000076293945</v>
       </c>
       <c r="C431">
@@ -13516,13 +15449,20 @@
       <c r="D431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E431">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1551307349.0799999</v>
       </c>
       <c r="B432">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>48.019999980926514</v>
       </c>
       <c r="C432">
@@ -13531,8 +15471,324 @@
       <c r="D432">
         <v>0</v>
       </c>
+      <c r="E432">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>2</v>
+      </c>
+      <c r="B439" t="s">
+        <v>3</v>
+      </c>
+      <c r="C439" t="s">
+        <v>0</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1</v>
+      </c>
+      <c r="E439" t="s">
+        <v>4</v>
+      </c>
+      <c r="F439" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>1551307311.47</v>
+      </c>
+      <c r="B440">
+        <v>10.410000085830688</v>
+      </c>
+      <c r="C440">
+        <v>34</v>
+      </c>
+      <c r="D440">
+        <v>32</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1551307311.5599999</v>
+      </c>
+      <c r="B441">
+        <v>10.5</v>
+      </c>
+      <c r="C441">
+        <v>39</v>
+      </c>
+      <c r="D441">
+        <v>27</v>
+      </c>
+      <c r="E441">
+        <v>6</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="H441">
+        <f>AVERAGE(E440:E453)</f>
+        <v>9.3214285714285712</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1551307311.6500001</v>
+      </c>
+      <c r="B442">
+        <v>10.590000152587891</v>
+      </c>
+      <c r="C442">
+        <v>38</v>
+      </c>
+      <c r="D442">
+        <v>28</v>
+      </c>
+      <c r="E442">
+        <v>5</v>
+      </c>
+      <c r="F442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <f>STDEV(E440:E453)</f>
+        <v>8.8396117710981095</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>1551307311.74</v>
+      </c>
+      <c r="B443">
+        <v>10.680000066757202</v>
+      </c>
+      <c r="C443">
+        <v>37</v>
+      </c>
+      <c r="D443">
+        <v>29</v>
+      </c>
+      <c r="E443">
+        <v>4</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>1551307323.55</v>
+      </c>
+      <c r="B444">
+        <v>22.490000009536743</v>
+      </c>
+      <c r="C444">
+        <v>27</v>
+      </c>
+      <c r="D444">
+        <v>38</v>
+      </c>
+      <c r="E444">
+        <v>5.5</v>
+      </c>
+      <c r="F444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>1551307327.05</v>
+      </c>
+      <c r="B445">
+        <v>25.990000009536743</v>
+      </c>
+      <c r="C445">
+        <v>-1</v>
+      </c>
+      <c r="D445">
+        <v>68</v>
+      </c>
+      <c r="E445">
+        <v>34.5</v>
+      </c>
+      <c r="F445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>1551307327.1400001</v>
+      </c>
+      <c r="B446">
+        <v>26.080000162124634</v>
+      </c>
+      <c r="C446">
+        <v>18</v>
+      </c>
+      <c r="D446">
+        <v>48</v>
+      </c>
+      <c r="E446">
+        <v>15</v>
+      </c>
+      <c r="F446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1551307327.23</v>
+      </c>
+      <c r="B447">
+        <v>26.170000076293945</v>
+      </c>
+      <c r="C447">
+        <v>26</v>
+      </c>
+      <c r="D447">
+        <v>40</v>
+      </c>
+      <c r="E447">
+        <v>7</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>1551307327.3299999</v>
+      </c>
+      <c r="B448">
+        <v>26.269999980926514</v>
+      </c>
+      <c r="C448">
+        <v>35</v>
+      </c>
+      <c r="D448">
+        <v>30</v>
+      </c>
+      <c r="E448">
+        <v>2.5</v>
+      </c>
+      <c r="F448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>1551307335.6400001</v>
+      </c>
+      <c r="B449">
+        <v>34.580000162124634</v>
+      </c>
+      <c r="C449">
+        <v>34</v>
+      </c>
+      <c r="D449">
+        <v>32</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+      <c r="F449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>1551307335.73</v>
+      </c>
+      <c r="B450">
+        <v>34.670000076293945</v>
+      </c>
+      <c r="C450">
+        <v>51</v>
+      </c>
+      <c r="D450">
+        <v>15</v>
+      </c>
+      <c r="E450">
+        <v>18</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>1551307335.8299999</v>
+      </c>
+      <c r="B451">
+        <v>34.769999980926514</v>
+      </c>
+      <c r="C451">
+        <v>44</v>
+      </c>
+      <c r="D451">
+        <v>21</v>
+      </c>
+      <c r="E451">
+        <v>11.5</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1551307335.9200001</v>
+      </c>
+      <c r="B452">
+        <v>34.860000133514404</v>
+      </c>
+      <c r="C452">
+        <v>41</v>
+      </c>
+      <c r="D452">
+        <v>25</v>
+      </c>
+      <c r="E452">
+        <v>8</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>1551307347.74</v>
+      </c>
+      <c r="B453">
+        <v>46.680000066757202</v>
+      </c>
+      <c r="C453">
+        <v>21</v>
+      </c>
+      <c r="D453">
+        <v>44</v>
+      </c>
+      <c r="E453">
+        <v>11.5</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F432" xr:uid="{C1EA8AA0-6CEB-4BE9-896B-7B48F2CE4231}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
